--- a/DASHBOARD_2025.xlsx
+++ b/DASHBOARD_2025.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-cdu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-cdu\OneDrive\Área de Trabalho\Programador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143823D7-A902-440E-9F3A-13F4F85C693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D8E80-CCFA-4D47-A5FC-513DC3FC173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
-    <sheet name="B̳ases" sheetId="2" r:id="rId2"/>
-    <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
+    <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="C̳álculos" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="328">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1057,25 +1057,10 @@
     <t xml:space="preserve">Period calculation : 01/01/2024 - 31/12/2024 | Updade date: 25/12/2024 - 09:00:00 </t>
   </si>
   <si>
-    <t>Soma</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Soma Acumulada</t>
-  </si>
-  <si>
-    <t>Contagem</t>
-  </si>
-  <si>
     <t>Sub Type2</t>
   </si>
   <si>
-    <t>Nenhuma</t>
-  </si>
-  <si>
-    <t>Ambas</t>
+    <t>(Tudo)</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1214,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1266,13 +1251,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1280,13 +1262,7 @@
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1301,15 +1277,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1333,55 +1300,7 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1391,6 +1310,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1417,35 +1340,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1485,10 +1386,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1577,12 +1487,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight3 2" pivot="0" table="0" count="10" xr9:uid="{7671ECAB-858B-4D41-8447-65E13FAD2B40}">
-      <tableStyleElement type="wholeTable" dxfId="67"/>
-      <tableStyleElement type="headerRow" dxfId="66"/>
+      <tableStyleElement type="wholeTable" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
     </tableStyle>
     <tableStyle name="SlicerStyleLight3 2 2" pivot="0" table="0" count="10" xr9:uid="{6573B316-2841-4209-BA27-879FB037EC7B}">
-      <tableStyleElement type="wholeTable" dxfId="65"/>
-      <tableStyleElement type="headerRow" dxfId="64"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2755,10 +2665,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2824</c:v>
+                  <c:v>3847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>747</c:v>
+                  <c:v>3786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4460,7 +4370,7 @@
                 <a:cs typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>R$ 1.350,00</a:t>
+              <a:t>R$ 2.940,00</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="16600">
               <a:solidFill>
@@ -4733,7 +4643,7 @@
                   <a:cs typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>R$ 1.800,00</a:t>
+                <a:t>R$ 3.880,00</a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="123400">
                 <a:solidFill>
@@ -10601,7 +10511,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD503E7F-78BC-413F-AD2B-CE78F9E901EB}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD503E7F-78BC-413F-AD2B-CE78F9E901EB}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="F24:H30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10612,9 +10522,9 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item x="0"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10720,7 +10630,7 @@
     <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="33">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10729,7 +10639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10752,7 +10662,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFBC7394-C2E5-4E23-91D3-203077F91427}" name="TBL_TOTAL_VAULE" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="28">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFBC7394-C2E5-4E23-91D3-203077F91427}" name="TBL_TOTAL_VAULE" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="28">
   <location ref="F16:G19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10776,9 +10686,9 @@
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item x="0"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10848,7 +10758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80BADDF9-18B9-4473-A002-9655D8A79A83}" name="TBL_Anual_total" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80BADDF9-18B9-4473-A002-9655D8A79A83}" name="TBL_Anual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="C14:D18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -11198,7 +11108,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7831412D-E833-496E-BF72-A0D5ED51BF84}" name="Tabela dinâmica7" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7831412D-E833-496E-BF72-A0D5ED51BF84}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="B33:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -11216,9 +11126,9 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item x="0"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11268,7 +11178,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{151C70A4-D081-4FA5-A311-11067B2FF10D}" name="TBL_EAPLAYSSPASS" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{151C70A4-D081-4FA5-A311-11067B2FF10D}" name="TBL_EAPLAYSSPASS" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="B23:C27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -11286,9 +11196,9 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item x="0"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11326,10 +11236,10 @@
     <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="62">
+    <format dxfId="11">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -11360,9 +11270,9 @@
   <data>
     <tabular pivotCacheId="776569212">
       <items count="3">
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="0" s="1"/>
-        <i x="2"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -11376,24 +11286,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:N297" totalsRowCount="1" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:N297" totalsRowCount="1" dataDxfId="39">
   <autoFilter ref="A1:N296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N296">
     <sortCondition ref="L2:L296"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="60" totalsRowDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="59" totalsRowDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="58" totalsRowDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="57" totalsRowDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="56" totalsRowDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="55" totalsRowDxfId="42" dataCellStyle="Hiperlink"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="54" totalsRowDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="53" totalsRowDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="39" dataCellStyle="Hiperlink"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="51" totalsRowDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="37" dataCellStyle="Hiperlink"/>
-    <tableColumn id="14" xr3:uid="{AD44C4AA-5595-460B-8990-457CD37F3EDA}" name="Sub Type2" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="36" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{AD44C4AA-5595-460B-8990-457CD37F3EDA}" name="Sub Type2" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(AND(H2="Yes",J2="Yes"),"Ambas",
 IF(AND(H2="Yes",J2="Yes"),"EA Play Season Pass",
 IF(AND(H2="No",J2="Yes"),"Minecraft Season Pass Price",
@@ -11401,8 +11311,8 @@
       <totalsRowFormula>SUM(Tabela1[[#Totals],[EA Play Season Pass
 Price]],Tabela1[[#Totals],[Minecraft Season Pass Price]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="49" totalsRowDxfId="35" dataCellStyle="Hiperlink"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" totalsRowFunction="sum" totalsRowDxfId="34" dataCellStyle="Hiperlink"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" totalsRowFunction="sum" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11903,8 +11813,8 @@
   </sheetPr>
   <dimension ref="A1:N297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" activeCellId="6" sqref="P8 H1 H1:H1048576 I1:I1048576 J1:J1048576 K1:K1048576 L1:L1048576"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L1" activeCellId="6" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11960,7 +11870,7 @@
         <v>29</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>30</v>
@@ -25274,7 +25184,7 @@
         <v>2940</v>
       </c>
       <c r="J297" s="8"/>
-      <c r="K297" s="23">
+      <c r="K297" s="20">
         <f>SUBTOTAL(109,Tabela1[Minecraft Season Pass Price])</f>
         <v>3880</v>
       </c>
@@ -25365,7 +25275,7 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -25401,7 +25311,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="14">
-        <v>2824</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -25415,7 +25325,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="14">
-        <v>747</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -25423,7 +25333,7 @@
         <v>315</v>
       </c>
       <c r="G19" s="14">
-        <v>3571</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -25431,7 +25341,7 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -25439,7 +25349,7 @@
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -25460,7 +25370,7 @@
       <c r="F24" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="23" t="s">
         <v>321</v>
       </c>
       <c r="H24" t="s">
@@ -25489,9 +25399,9 @@
         <v>16</v>
       </c>
       <c r="C26" s="14">
-        <v>1350</v>
-      </c>
-      <c r="F26" s="24" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="14">
@@ -25506,46 +25416,46 @@
         <v>315</v>
       </c>
       <c r="C27" s="14">
-        <v>1350</v>
+        <v>2940</v>
       </c>
       <c r="D27" s="16">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$B$23)</f>
-        <v>1350</v>
+        <v>2940</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="14">
-        <v>1350</v>
+        <v>2940</v>
       </c>
       <c r="H27" s="14">
-        <v>1800</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="14">
         <v>0</v>
       </c>
       <c r="H28" s="14">
-        <v>900</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="s">
         <v>322</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="14">
-        <v>1350</v>
+        <v>2940</v>
       </c>
       <c r="H29" s="14">
-        <v>900</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -25553,14 +25463,14 @@
         <v>315</v>
       </c>
       <c r="G30" s="14">
-        <v>1350</v>
+        <v>2940</v>
       </c>
       <c r="H30" s="14">
-        <v>1800</v>
+        <v>3880</v>
       </c>
       <c r="I30" s="21">
         <f>SUM(G30,H30)</f>
-        <v>3150</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -25568,7 +25478,7 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -25592,7 +25502,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="14">
-        <v>900</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -25600,7 +25510,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="14">
-        <v>900</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -25608,11 +25518,11 @@
         <v>315</v>
       </c>
       <c r="C37" s="14">
-        <v>1800</v>
+        <v>3880</v>
       </c>
       <c r="D37" s="16">
         <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$33)</f>
-        <v>1800</v>
+        <v>3880</v>
       </c>
     </row>
   </sheetData>
@@ -25625,7 +25535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A1:Z461"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -28712,6 +28622,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -28966,15 +28885,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
   <ds:schemaRefs>
@@ -28987,6 +28897,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29003,12 +28921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>